--- a/src/main/resources/rules/depositInterestRate.xlsx
+++ b/src/main/resources/rules/depositInterestRate.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16FD4B61-A7D0-9845-9682-873E8FB00C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEA1C8A-625F-664B-B537-D687017E5357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
     <t>"Recurring"</t>
   </si>
   <si>
-    <t>"2"</t>
-  </si>
-  <si>
     <t>Set Interest</t>
   </si>
   <si>
@@ -94,7 +91,10 @@
     <t>com.persistent.bootdrools.model.DepositRequest</t>
   </si>
   <si>
-    <t>"5"</t>
+    <t>"5%"</t>
+  </si>
+  <si>
+    <t>"2%"</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -552,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -603,7 +603,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -637,7 +637,7 @@
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -654,7 +654,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
